--- a/data/tweets_contrarios.xlsx
+++ b/data/tweets_contrarios.xlsx
@@ -615,11 +615,6 @@
           <t>nerdclassico</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Para o triunfo do mal só é preciso que os bons homens não façam nada - Edmund Burke</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -734,11 +729,6 @@
       <c r="B23" t="inlineStr">
         <is>
           <t>nerdclassico</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Para o triunfo do mal só é preciso que os bons homens não façam nada - Edmund Burke</t>
         </is>
       </c>
     </row>
@@ -2245,11 +2235,6 @@
           <t>nerdclassico</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>Para o triunfo do mal só é preciso que os bons homens não façam nada - Edmund Burke</t>
-        </is>
-      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
